--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Psen1-Notch3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Psen1-Notch3.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>24.916566</v>
+        <v>9.409481333333334</v>
       </c>
       <c r="H2">
-        <v>74.74969800000001</v>
+        <v>28.228444</v>
       </c>
       <c r="I2">
-        <v>0.4599128892550761</v>
+        <v>0.2433300530093958</v>
       </c>
       <c r="J2">
-        <v>0.459912889255076</v>
+        <v>0.2433300530093958</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.847498666666667</v>
+        <v>7.413580666666667</v>
       </c>
       <c r="N2">
-        <v>14.542496</v>
+        <v>22.240742</v>
       </c>
       <c r="O2">
-        <v>0.03400671694637637</v>
+        <v>0.05108888817597561</v>
       </c>
       <c r="P2">
-        <v>0.03400671694637637</v>
+        <v>0.05108888817597561</v>
       </c>
       <c r="Q2">
-        <v>120.783020462912</v>
+        <v>69.7579488961609</v>
       </c>
       <c r="R2">
-        <v>1087.047184166208</v>
+        <v>627.8215400654481</v>
       </c>
       <c r="S2">
-        <v>0.01564012744488751</v>
+        <v>0.01243146186805124</v>
       </c>
       <c r="T2">
-        <v>0.01564012744488751</v>
+        <v>0.01243146186805124</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>24.916566</v>
+        <v>9.409481333333334</v>
       </c>
       <c r="H3">
-        <v>74.74969800000001</v>
+        <v>28.228444</v>
       </c>
       <c r="I3">
-        <v>0.4599128892550761</v>
+        <v>0.2433300530093958</v>
       </c>
       <c r="J3">
-        <v>0.459912889255076</v>
+        <v>0.2433300530093958</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>4.88128</v>
       </c>
       <c r="O3">
-        <v>0.01141456784970118</v>
+        <v>0.0112127179963522</v>
       </c>
       <c r="P3">
-        <v>0.01141456784970118</v>
+        <v>0.0112127179963522</v>
       </c>
       <c r="Q3">
-        <v>40.54157842816001</v>
+        <v>15.31010434759111</v>
       </c>
       <c r="R3">
-        <v>364.8742058534401</v>
+        <v>137.79093912832</v>
       </c>
       <c r="S3">
-        <v>0.005249706879354171</v>
+        <v>0.002728391264431787</v>
       </c>
       <c r="T3">
-        <v>0.005249706879354171</v>
+        <v>0.002728391264431788</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>24.916566</v>
+        <v>9.409481333333334</v>
       </c>
       <c r="H4">
-        <v>74.74969800000001</v>
+        <v>28.228444</v>
       </c>
       <c r="I4">
-        <v>0.4599128892550761</v>
+        <v>0.2433300530093958</v>
       </c>
       <c r="J4">
-        <v>0.459912889255076</v>
+        <v>0.2433300530093958</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>408.212212</v>
       </c>
       <c r="O4">
-        <v>0.9545787152039225</v>
+        <v>0.9376983938276722</v>
       </c>
       <c r="P4">
-        <v>0.9545787152039225</v>
+        <v>0.9376983938276722</v>
       </c>
       <c r="Q4">
-        <v>3390.415507434665</v>
+        <v>1280.355062950903</v>
       </c>
       <c r="R4">
-        <v>30513.73956691198</v>
+        <v>11523.19556655813</v>
       </c>
       <c r="S4">
-        <v>0.4390230549308344</v>
+        <v>0.2281701998769128</v>
       </c>
       <c r="T4">
-        <v>0.4390230549308343</v>
+        <v>0.2281701998769128</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>58.80901</v>
       </c>
       <c r="I5">
-        <v>0.3618345281251927</v>
+        <v>0.5069354697952918</v>
       </c>
       <c r="J5">
-        <v>0.3618345281251926</v>
+        <v>0.5069354697952919</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.847498666666667</v>
+        <v>7.413580666666667</v>
       </c>
       <c r="N5">
-        <v>14.542496</v>
+        <v>22.240742</v>
       </c>
       <c r="O5">
-        <v>0.03400671694637637</v>
+        <v>0.05108888817597561</v>
       </c>
       <c r="P5">
-        <v>0.03400671694637637</v>
+        <v>0.05108888817597561</v>
       </c>
       <c r="Q5">
-        <v>95.02553252099555</v>
+        <v>145.3284465206022</v>
       </c>
       <c r="R5">
-        <v>855.2297926889599</v>
+        <v>1307.95601868542</v>
       </c>
       <c r="S5">
-        <v>0.01230480437937909</v>
+        <v>0.02589876952880733</v>
       </c>
       <c r="T5">
-        <v>0.01230480437937908</v>
+        <v>0.02589876952880733</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>58.80901</v>
       </c>
       <c r="I6">
-        <v>0.3618345281251927</v>
+        <v>0.5069354697952918</v>
       </c>
       <c r="J6">
-        <v>0.3618345281251926</v>
+        <v>0.5069354697952919</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>4.88128</v>
       </c>
       <c r="O6">
-        <v>0.01141456784970118</v>
+        <v>0.0112127179963522</v>
       </c>
       <c r="P6">
-        <v>0.01141456784970118</v>
+        <v>0.0112127179963522</v>
       </c>
       <c r="Q6">
         <v>31.89591603697778</v>
@@ -818,10 +818,10 @@
         <v>287.0632443328</v>
       </c>
       <c r="S6">
-        <v>0.004130184771649622</v>
+        <v>0.005684124465162926</v>
       </c>
       <c r="T6">
-        <v>0.004130184771649621</v>
+        <v>0.005684124465162927</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>58.80901</v>
       </c>
       <c r="I7">
-        <v>0.3618345281251927</v>
+        <v>0.5069354697952918</v>
       </c>
       <c r="J7">
-        <v>0.3618345281251926</v>
+        <v>0.5069354697952919</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>408.212212</v>
       </c>
       <c r="O7">
-        <v>0.9545787152039225</v>
+        <v>0.9376983938276722</v>
       </c>
       <c r="P7">
-        <v>0.9545787152039225</v>
+        <v>0.9376983938276722</v>
       </c>
       <c r="Q7">
         <v>2667.395117514458</v>
@@ -880,10 +880,10 @@
         <v>24006.55605763012</v>
       </c>
       <c r="S7">
-        <v>0.345399538974164</v>
+        <v>0.4753525758013216</v>
       </c>
       <c r="T7">
-        <v>0.3453995389741639</v>
+        <v>0.4753525758013217</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>9.657138000000002</v>
+        <v>9.657138</v>
       </c>
       <c r="H8">
         <v>28.971414</v>
       </c>
       <c r="I8">
-        <v>0.1782525826197313</v>
+        <v>0.2497344771953123</v>
       </c>
       <c r="J8">
-        <v>0.1782525826197312</v>
+        <v>0.2497344771953124</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.847498666666667</v>
+        <v>7.413580666666667</v>
       </c>
       <c r="N8">
-        <v>14.542496</v>
+        <v>22.240742</v>
       </c>
       <c r="O8">
-        <v>0.03400671694637637</v>
+        <v>0.05108888817597561</v>
       </c>
       <c r="P8">
-        <v>0.03400671694637637</v>
+        <v>0.05108888817597561</v>
       </c>
       <c r="Q8">
-        <v>46.81296357881601</v>
+        <v>71.59397157213201</v>
       </c>
       <c r="R8">
-        <v>421.3166722093441</v>
+        <v>644.345744149188</v>
       </c>
       <c r="S8">
-        <v>0.006061785122109769</v>
+        <v>0.01275865677911704</v>
       </c>
       <c r="T8">
-        <v>0.006061785122109767</v>
+        <v>0.01275865677911704</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>9.657138000000002</v>
+        <v>9.657138</v>
       </c>
       <c r="H9">
         <v>28.971414</v>
       </c>
       <c r="I9">
-        <v>0.1782525826197313</v>
+        <v>0.2497344771953123</v>
       </c>
       <c r="J9">
-        <v>0.1782525826197312</v>
+        <v>0.2497344771953124</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>4.88128</v>
       </c>
       <c r="O9">
-        <v>0.01141456784970118</v>
+        <v>0.0112127179963522</v>
       </c>
       <c r="P9">
-        <v>0.01141456784970118</v>
+        <v>0.0112127179963522</v>
       </c>
       <c r="Q9">
         <v>15.71306485888</v>
@@ -1004,10 +1004,10 @@
         <v>141.41758372992</v>
       </c>
       <c r="S9">
-        <v>0.002034676198697388</v>
+        <v>0.002800202266757487</v>
       </c>
       <c r="T9">
-        <v>0.002034676198697388</v>
+        <v>0.002800202266757487</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.657138000000002</v>
+        <v>9.657138</v>
       </c>
       <c r="H10">
         <v>28.971414</v>
       </c>
       <c r="I10">
-        <v>0.1782525826197313</v>
+        <v>0.2497344771953123</v>
       </c>
       <c r="J10">
-        <v>0.1782525826197312</v>
+        <v>0.2497344771953124</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>408.212212</v>
       </c>
       <c r="O10">
-        <v>0.9545787152039225</v>
+        <v>0.9376983938276722</v>
       </c>
       <c r="P10">
-        <v>0.9545787152039225</v>
+        <v>0.9376983938276722</v>
       </c>
       <c r="Q10">
         <v>1314.053888189752</v>
@@ -1066,10 +1066,10 @@
         <v>11826.48499370777</v>
       </c>
       <c r="S10">
-        <v>0.1701561212989241</v>
+        <v>0.2341756181494378</v>
       </c>
       <c r="T10">
-        <v>0.1701561212989241</v>
+        <v>0.2341756181494378</v>
       </c>
     </row>
   </sheetData>
